--- a/Code/Results/Cases/Case_3_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_83/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.507599411262959</v>
+        <v>0.8367010369953505</v>
       </c>
       <c r="C2">
-        <v>0.6343351772511028</v>
+        <v>0.2049245934894088</v>
       </c>
       <c r="D2">
-        <v>0.2307858754361547</v>
+        <v>0.3510291671064465</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4501429082677362</v>
+        <v>0.8901291982779966</v>
       </c>
       <c r="G2">
-        <v>0.2005325871065011</v>
+        <v>0.3445974802329985</v>
       </c>
       <c r="H2">
-        <v>0.1889298889860527</v>
+        <v>0.5178742945755914</v>
       </c>
       <c r="I2">
-        <v>0.1086180844016855</v>
+        <v>0.360598179036014</v>
       </c>
       <c r="J2">
-        <v>0.129321542826851</v>
+        <v>0.2776838763725493</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8192598638630102</v>
+        <v>0.4061749507860384</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7708661711519937</v>
+        <v>1.660588337173365</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.189296590661115</v>
+        <v>0.7328516411075725</v>
       </c>
       <c r="C3">
-        <v>0.5581832401253166</v>
+        <v>0.1796925741805921</v>
       </c>
       <c r="D3">
-        <v>0.2116596642646584</v>
+        <v>0.3476827487559291</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4324433059778912</v>
+        <v>0.8954113168092306</v>
       </c>
       <c r="G3">
-        <v>0.1913649538491313</v>
+        <v>0.3475926886938012</v>
       </c>
       <c r="H3">
-        <v>0.1908702254541836</v>
+        <v>0.5233507373857194</v>
       </c>
       <c r="I3">
-        <v>0.1195284059423027</v>
+        <v>0.3684798755134917</v>
       </c>
       <c r="J3">
-        <v>0.1251777319210134</v>
+        <v>0.2794330165164993</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7136692976668471</v>
+        <v>0.3743556449220549</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.755124001400219</v>
+        <v>1.678139633395617</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.993718363077647</v>
+        <v>0.6688563402614989</v>
       </c>
       <c r="C4">
-        <v>0.5113820918527665</v>
+        <v>0.1641304565277721</v>
       </c>
       <c r="D4">
-        <v>0.2001273414443574</v>
+        <v>0.3457661527478137</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4228024704242088</v>
+        <v>0.8992921972119419</v>
       </c>
       <c r="G4">
-        <v>0.1865530011686829</v>
+        <v>0.3497855927703668</v>
       </c>
       <c r="H4">
-        <v>0.1925803265799502</v>
+        <v>0.5270134162765032</v>
       </c>
       <c r="I4">
-        <v>0.126863437532748</v>
+        <v>0.3736292901093865</v>
       </c>
       <c r="J4">
-        <v>0.1229592279205605</v>
+        <v>0.280683080905348</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6489505688886155</v>
+        <v>0.3548479801024413</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7482670768980597</v>
+        <v>1.690285523443805</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.913965492767801</v>
+        <v>0.6427214702790991</v>
       </c>
       <c r="C5">
-        <v>0.4922952800552594</v>
+        <v>0.1577717523015281</v>
       </c>
       <c r="D5">
-        <v>0.1954779004015137</v>
+        <v>0.3450199661950251</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4191666714981608</v>
+        <v>0.901033914261447</v>
       </c>
       <c r="G5">
-        <v>0.184785729830665</v>
+        <v>0.3507679744042562</v>
       </c>
       <c r="H5">
-        <v>0.1934023959021829</v>
+        <v>0.528581437393477</v>
       </c>
       <c r="I5">
-        <v>0.1300057347421939</v>
+        <v>0.3758055347362106</v>
       </c>
       <c r="J5">
-        <v>0.1221330253984405</v>
+        <v>0.2812367387887136</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6225977084786578</v>
+        <v>0.3469064176336261</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7461430960133839</v>
+        <v>1.69557889150245</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.900718872278532</v>
+        <v>0.6383784532146421</v>
       </c>
       <c r="C6">
-        <v>0.4891249143054779</v>
+        <v>0.1567148807035323</v>
       </c>
       <c r="D6">
-        <v>0.1947088024304549</v>
+        <v>0.3448981701171476</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4185801995140892</v>
+        <v>0.9013327990403965</v>
       </c>
       <c r="G6">
-        <v>0.1845036358167604</v>
+        <v>0.3509364522931264</v>
       </c>
       <c r="H6">
-        <v>0.1935463119833685</v>
+        <v>0.5288463625507447</v>
       </c>
       <c r="I6">
-        <v>0.1305365731429218</v>
+        <v>0.3761715942756432</v>
       </c>
       <c r="J6">
-        <v>0.1220004219276447</v>
+        <v>0.2813313447127896</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6182228471881288</v>
+        <v>0.3455882247156339</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7458298702181452</v>
+        <v>1.696478602124998</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.992643026309452</v>
+        <v>0.6685041015389857</v>
       </c>
       <c r="C7">
-        <v>0.5111247461058497</v>
+        <v>0.1640447690785152</v>
       </c>
       <c r="D7">
-        <v>0.2000644386241675</v>
+        <v>0.3457559481941956</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4227522708113867</v>
+        <v>0.8993150380153949</v>
       </c>
       <c r="G7">
-        <v>0.18652839831352</v>
+        <v>0.3497984824369311</v>
       </c>
       <c r="H7">
-        <v>0.1925909131717276</v>
+        <v>0.5270342576895004</v>
       </c>
       <c r="I7">
-        <v>0.1269052039814254</v>
+        <v>0.3736583248171588</v>
       </c>
       <c r="J7">
-        <v>0.1229477754719994</v>
+        <v>0.2806903686181741</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6485950922705612</v>
+        <v>0.3547408444189912</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7482357646895395</v>
+        <v>1.690355520222326</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.397865996234543</v>
+        <v>0.8009428929544242</v>
       </c>
       <c r="C8">
-        <v>0.608084496205521</v>
+        <v>0.1962393062387946</v>
       </c>
       <c r="D8">
-        <v>0.2241454272456735</v>
+        <v>0.3498467203103246</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4437758717756495</v>
+        <v>0.8918180621691008</v>
       </c>
       <c r="G8">
-        <v>0.1971947438420614</v>
+        <v>0.3455566580474496</v>
       </c>
       <c r="H8">
-        <v>0.1894880223769775</v>
+        <v>0.5197002712655348</v>
       </c>
       <c r="I8">
-        <v>0.1122438147527536</v>
+        <v>0.3632513594241633</v>
       </c>
       <c r="J8">
-        <v>0.1278226223921308</v>
+        <v>0.2782504141242796</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7828233913799778</v>
+        <v>0.3951978449998705</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7648331024090851</v>
+        <v>1.666355515581245</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.192329531096959</v>
+        <v>1.058747988434163</v>
       </c>
       <c r="C9">
-        <v>0.7980824120933221</v>
+        <v>0.2588029451156331</v>
       </c>
       <c r="D9">
-        <v>0.2731916997629895</v>
+        <v>0.3589604801805564</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.495476754087008</v>
+        <v>0.882181705006424</v>
       </c>
       <c r="G9">
-        <v>0.2251540358328015</v>
+        <v>0.3400560806222046</v>
       </c>
       <c r="H9">
-        <v>0.187767831507216</v>
+        <v>0.5077005186676899</v>
       </c>
       <c r="I9">
-        <v>0.0888563949339396</v>
+        <v>0.3453092140955132</v>
       </c>
       <c r="J9">
-        <v>0.1401612859555144</v>
+        <v>0.2748644334075507</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.047359544942609</v>
+        <v>0.4747481226084815</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8213758661620574</v>
+        <v>1.630180035084123</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.777356735000239</v>
+        <v>1.24691758343107</v>
       </c>
       <c r="C10">
-        <v>0.9379116023287111</v>
+        <v>0.304401573667775</v>
       </c>
       <c r="D10">
-        <v>0.3105578044959003</v>
+        <v>0.3663174476890418</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5409334805120238</v>
+        <v>0.8781988678379236</v>
       </c>
       <c r="G10">
-        <v>0.2508109651256305</v>
+        <v>0.3377468416552745</v>
       </c>
       <c r="H10">
-        <v>0.1895294419098548</v>
+        <v>0.5003377588781746</v>
       </c>
       <c r="I10">
-        <v>0.07540479838913683</v>
+        <v>0.3336381868611706</v>
       </c>
       <c r="J10">
-        <v>0.1512064791702841</v>
+        <v>0.2732319598944102</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.243140692800338</v>
+        <v>0.5333033945194501</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8800530079826245</v>
+        <v>1.61027313543849</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.044142358557906</v>
+        <v>1.332236530894306</v>
       </c>
       <c r="C11">
-        <v>1.001654279259213</v>
+        <v>0.3250620813572027</v>
       </c>
       <c r="D11">
-        <v>0.3278981247042054</v>
+        <v>0.3698069911630597</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5634923954451025</v>
+        <v>0.8770614689680798</v>
       </c>
       <c r="G11">
-        <v>0.2637879464774002</v>
+        <v>0.3370754832465224</v>
       </c>
       <c r="H11">
-        <v>0.1910740379605826</v>
+        <v>0.4973041258549742</v>
       </c>
       <c r="I11">
-        <v>0.07020411071938959</v>
+        <v>0.3286584960493926</v>
       </c>
       <c r="J11">
-        <v>0.1567289629152313</v>
+        <v>0.2726755566939474</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.332667186004272</v>
+        <v>0.5599614852851289</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9110601377741432</v>
+        <v>1.602672744419692</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.145291747368276</v>
+        <v>1.364502632900098</v>
       </c>
       <c r="C12">
-        <v>1.025818084453789</v>
+        <v>0.3328733956855103</v>
       </c>
       <c r="D12">
-        <v>0.3345182731451501</v>
+        <v>0.3711488320999337</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5723281647650182</v>
+        <v>0.8767278887466858</v>
       </c>
       <c r="G12">
-        <v>0.268907058760945</v>
+        <v>0.3368760154617689</v>
       </c>
       <c r="H12">
-        <v>0.1917735306134603</v>
+        <v>0.496200794027402</v>
       </c>
       <c r="I12">
-        <v>0.06837655316911651</v>
+        <v>0.3268203491684094</v>
       </c>
       <c r="J12">
-        <v>0.1588978526171516</v>
+        <v>0.2724916798820232</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.366648545552025</v>
+        <v>0.5700587640511259</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9234750976196437</v>
+        <v>1.600004521615489</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.123501431388718</v>
+        <v>1.357555465211817</v>
       </c>
       <c r="C13">
-        <v>1.020612716311035</v>
+        <v>0.331191647576901</v>
       </c>
       <c r="D13">
-        <v>0.3330900399977992</v>
+        <v>0.3708589359371928</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5704118042515276</v>
+        <v>0.8767954090823267</v>
       </c>
       <c r="G13">
-        <v>0.267795160762283</v>
+        <v>0.3369165350530423</v>
       </c>
       <c r="H13">
-        <v>0.1916176576281003</v>
+        <v>0.4964363947483292</v>
       </c>
       <c r="I13">
-        <v>0.06876368044011194</v>
+        <v>0.3272141093171452</v>
       </c>
       <c r="J13">
-        <v>0.1584271894794611</v>
+        <v>0.2725300874872048</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.359326296304559</v>
+        <v>0.5678840351947656</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9207704926915596</v>
+        <v>1.60056982712463</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.052461328164782</v>
+        <v>1.334891942424633</v>
       </c>
       <c r="C14">
-        <v>1.003641692389664</v>
+        <v>0.3257049736998852</v>
       </c>
       <c r="D14">
-        <v>0.328441664134175</v>
+        <v>0.3699169764813064</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5642133073382993</v>
+        <v>0.8770320776903375</v>
       </c>
       <c r="G14">
-        <v>0.2642048870652758</v>
+        <v>0.3370579740324331</v>
       </c>
       <c r="H14">
-        <v>0.1911292430959435</v>
+        <v>0.4972124431933622</v>
       </c>
       <c r="I14">
-        <v>0.07005085587813475</v>
+        <v>0.3285063165772328</v>
       </c>
       <c r="J14">
-        <v>0.156905806571821</v>
+        <v>0.2726598912589253</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.335461180387583</v>
+        <v>0.5607921489413172</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.912067716260367</v>
+        <v>1.602449018380455</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.008964206481778</v>
+        <v>1.321004307831345</v>
       </c>
       <c r="C15">
-        <v>0.9932500206472241</v>
+        <v>0.3223426015259747</v>
       </c>
       <c r="D15">
-        <v>0.3256015385352384</v>
+        <v>0.3693426559622566</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5604554347023338</v>
+        <v>0.8771896973479016</v>
       </c>
       <c r="G15">
-        <v>0.2620329719436256</v>
+        <v>0.3371517481840058</v>
       </c>
       <c r="H15">
-        <v>0.190845235580106</v>
+        <v>0.4976937139322288</v>
       </c>
       <c r="I15">
-        <v>0.07085805856785221</v>
+        <v>0.3293040287907498</v>
       </c>
       <c r="J15">
-        <v>0.155984213633495</v>
+        <v>0.2727428939809187</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.320853873250641</v>
+        <v>0.5564484641592884</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9068263169286581</v>
+        <v>1.603627427672279</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.759937287274226</v>
+        <v>1.241335975414358</v>
       </c>
       <c r="C16">
-        <v>0.933749111365529</v>
+        <v>0.3030496569774925</v>
       </c>
       <c r="D16">
-        <v>0.3094318413349129</v>
+        <v>0.3660922622639333</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5394989554621716</v>
+        <v>0.8782867831701324</v>
       </c>
       <c r="G16">
-        <v>0.2499906101546614</v>
+        <v>0.3377983663270356</v>
       </c>
       <c r="H16">
-        <v>0.189444102143753</v>
+        <v>0.5005423703919902</v>
       </c>
       <c r="I16">
-        <v>0.07576397756653819</v>
+        <v>0.3339702666277873</v>
       </c>
       <c r="J16">
-        <v>0.1508560989610714</v>
+        <v>0.2732720730168623</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.237300348406677</v>
+        <v>0.5315615984290076</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8781178733299981</v>
+        <v>1.610799175925891</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.607355013702261</v>
+        <v>1.192388789855897</v>
       </c>
       <c r="C17">
-        <v>0.8972860036597581</v>
+        <v>0.2911925617043494</v>
       </c>
       <c r="D17">
-        <v>0.2996030480870502</v>
+        <v>0.3641347520928946</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5271402026072423</v>
+        <v>0.8791326493958564</v>
       </c>
       <c r="G17">
-        <v>0.2429493213375906</v>
+        <v>0.3382923225594965</v>
       </c>
       <c r="H17">
-        <v>0.1887802377674461</v>
+        <v>0.5023708206940256</v>
       </c>
       <c r="I17">
-        <v>0.07901559497058663</v>
+        <v>0.3369173707628867</v>
       </c>
       <c r="J17">
-        <v>0.1478418750796919</v>
+        <v>0.2736444327272665</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.186170784504654</v>
+        <v>0.5162992769621866</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8616477163312339</v>
+        <v>1.61557199282295</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.519653365354031</v>
+        <v>1.164209395604757</v>
       </c>
       <c r="C18">
-        <v>0.8763255427560068</v>
+        <v>0.284364935141042</v>
       </c>
       <c r="D18">
-        <v>0.2939817156359794</v>
+        <v>0.3630222937393484</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5202073173401445</v>
+        <v>0.8796826395586024</v>
       </c>
       <c r="G18">
-        <v>0.2390211390236061</v>
+        <v>0.338612103836951</v>
       </c>
       <c r="H18">
-        <v>0.1884678656062206</v>
+        <v>0.5034522120354339</v>
       </c>
       <c r="I18">
-        <v>0.08097167442499398</v>
+        <v>0.3386434727988803</v>
       </c>
       <c r="J18">
-        <v>0.1461546592019971</v>
+        <v>0.2738761292627245</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.156805325460098</v>
+        <v>0.5075228049144869</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8525772656065556</v>
+        <v>1.618454140335402</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.489968478106164</v>
+        <v>1.154663887145261</v>
       </c>
       <c r="C19">
-        <v>0.8692305856756661</v>
+        <v>0.2820519043078207</v>
       </c>
       <c r="D19">
-        <v>0.2920837800920424</v>
+        <v>0.3626479478444082</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5178894410052237</v>
+        <v>0.8798797533131619</v>
       </c>
       <c r="G19">
-        <v>0.2377115320283778</v>
+        <v>0.3387264953202305</v>
       </c>
       <c r="H19">
-        <v>0.1883738058041047</v>
+        <v>0.5038234549801146</v>
       </c>
       <c r="I19">
-        <v>0.08164842460413091</v>
+        <v>0.3392332213683442</v>
       </c>
       <c r="J19">
-        <v>0.1455912036562097</v>
+        <v>0.2739575863569357</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.146869681746566</v>
+        <v>0.5045516055529333</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8495737873030009</v>
+        <v>1.619453488754303</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.623591278858271</v>
+        <v>1.197602034597082</v>
       </c>
       <c r="C20">
-        <v>0.9011662596299743</v>
+        <v>0.2924555743468602</v>
       </c>
       <c r="D20">
-        <v>0.3006460035337</v>
+        <v>0.3643417412019403</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5284374846560453</v>
+        <v>0.8790360354759343</v>
       </c>
       <c r="G20">
-        <v>0.2436861531918879</v>
+        <v>0.3382360465217076</v>
       </c>
       <c r="H20">
-        <v>0.1888436636697008</v>
+        <v>0.5021731033569665</v>
       </c>
       <c r="I20">
-        <v>0.07866050250014389</v>
+        <v>0.3366004362934909</v>
       </c>
       <c r="J20">
-        <v>0.1481578908221053</v>
+        <v>0.2736029803068547</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.191609082808768</v>
+        <v>0.5179237731708639</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8633589385096343</v>
+        <v>1.615049740184404</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.073323931324865</v>
+        <v>1.341549933321687</v>
       </c>
       <c r="C21">
-        <v>1.00862573683321</v>
+        <v>0.327316882565384</v>
       </c>
       <c r="D21">
-        <v>0.3298055085593319</v>
+        <v>0.3701930993214546</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5660258095271331</v>
+        <v>0.8769599251852327</v>
       </c>
       <c r="G21">
-        <v>0.2652537300304161</v>
+        <v>0.3370149418472579</v>
       </c>
       <c r="H21">
-        <v>0.1912695283455008</v>
+        <v>0.4969832654421538</v>
       </c>
       <c r="I21">
-        <v>0.0696688511846375</v>
+        <v>0.3281254720311644</v>
       </c>
       <c r="J21">
-        <v>0.1573505161388269</v>
+        <v>0.2726210364875641</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.342468675679001</v>
+        <v>0.5628751462914039</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9146052227968937</v>
+        <v>1.601891353493642</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.36798524598305</v>
+        <v>1.435380538648985</v>
       </c>
       <c r="C22">
-        <v>1.079010786726485</v>
+        <v>0.3500284212441898</v>
       </c>
       <c r="D22">
-        <v>0.3491785285742139</v>
+        <v>0.3741363102423065</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.592312639995292</v>
+        <v>0.8761692710014373</v>
       </c>
       <c r="G22">
-        <v>0.2805532248920741</v>
+        <v>0.3365361802626552</v>
       </c>
       <c r="H22">
-        <v>0.1935268387731526</v>
+        <v>0.4938562782103162</v>
       </c>
       <c r="I22">
-        <v>0.06462396937891768</v>
+        <v>0.3228638521634082</v>
       </c>
       <c r="J22">
-        <v>0.1638141135441629</v>
+        <v>0.2721356326322919</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.441534882541433</v>
+        <v>0.5922674117157385</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.952048869914222</v>
+        <v>1.594515206035481</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.21064134803612</v>
+        <v>1.385324703346271</v>
       </c>
       <c r="C23">
-        <v>1.041428532252297</v>
+        <v>0.337913630035132</v>
       </c>
       <c r="D23">
-        <v>0.3388083286057793</v>
+        <v>0.3720208916006271</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5781174820708301</v>
+        <v>0.8765394018926145</v>
       </c>
       <c r="G23">
-        <v>0.2722714270149993</v>
+        <v>0.3367624084293865</v>
       </c>
       <c r="H23">
-        <v>0.19225790698205</v>
+        <v>0.4955009617031365</v>
       </c>
       <c r="I23">
-        <v>0.06723703000020009</v>
+        <v>0.3256466525569746</v>
       </c>
       <c r="J23">
-        <v>0.1603205682397473</v>
+        <v>0.2723803812727965</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.388613821470358</v>
+        <v>0.5765791221098198</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9316845613964801</v>
+        <v>1.598339836008478</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.616250803491084</v>
+        <v>1.195245247994649</v>
       </c>
       <c r="C24">
-        <v>0.8994119880969151</v>
+        <v>0.2918846000110875</v>
       </c>
       <c r="D24">
-        <v>0.3001743922283282</v>
+        <v>0.3642481211107338</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5278504483893158</v>
+        <v>0.8790795162495115</v>
       </c>
       <c r="G24">
-        <v>0.2433526591910606</v>
+        <v>0.3382613774251055</v>
       </c>
       <c r="H24">
-        <v>0.1888147735663566</v>
+        <v>0.5022623973249338</v>
       </c>
       <c r="I24">
-        <v>0.07882077054307324</v>
+        <v>0.3367436234102961</v>
       </c>
       <c r="J24">
-        <v>0.1480148782063253</v>
+        <v>0.2736216660585953</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.189150336878114</v>
+        <v>0.5171893444974387</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8625840577935122</v>
+        <v>1.615285420190517</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.977282770554325</v>
+        <v>0.9892170810735479</v>
       </c>
       <c r="C25">
-        <v>0.7466661187444572</v>
+        <v>0.2419408537232357</v>
       </c>
       <c r="D25">
-        <v>0.2597062573207864</v>
+        <v>0.3563785493917919</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4802607241777466</v>
+        <v>0.8842453822170597</v>
       </c>
       <c r="G25">
-        <v>0.2167544759695801</v>
+        <v>0.3412409977255635</v>
       </c>
       <c r="H25">
-        <v>0.187729617815485</v>
+        <v>0.510691614558624</v>
       </c>
       <c r="I25">
-        <v>0.09456309875078084</v>
+        <v>0.3498982424600108</v>
       </c>
       <c r="J25">
-        <v>0.1364974026012078</v>
+        <v>0.2756304262296894</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9755928947955823</v>
+        <v>0.4532069044750671</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8032609764585459</v>
+        <v>1.638797315333562</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_83/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8367010369953505</v>
+        <v>2.507599411263016</v>
       </c>
       <c r="C2">
-        <v>0.2049245934894088</v>
+        <v>0.6343351772513017</v>
       </c>
       <c r="D2">
-        <v>0.3510291671064465</v>
+        <v>0.2307858754359415</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8901291982779966</v>
+        <v>0.4501429082677291</v>
       </c>
       <c r="G2">
-        <v>0.3445974802329985</v>
+        <v>0.200532587106494</v>
       </c>
       <c r="H2">
-        <v>0.5178742945755914</v>
+        <v>0.1889298889860527</v>
       </c>
       <c r="I2">
-        <v>0.360598179036014</v>
+        <v>0.1086180844016873</v>
       </c>
       <c r="J2">
-        <v>0.2776838763725493</v>
+        <v>0.1293215428269505</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4061749507860384</v>
+        <v>0.8192598638630031</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.660588337173365</v>
+        <v>0.7708661711519795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7328516411075725</v>
+        <v>2.189296590661229</v>
       </c>
       <c r="C3">
-        <v>0.1796925741805921</v>
+        <v>0.5581832401253166</v>
       </c>
       <c r="D3">
-        <v>0.3476827487559291</v>
+        <v>0.2116596642646442</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8954113168092306</v>
+        <v>0.4324433059778627</v>
       </c>
       <c r="G3">
-        <v>0.3475926886938012</v>
+        <v>0.1913649538491313</v>
       </c>
       <c r="H3">
-        <v>0.5233507373857194</v>
+        <v>0.1908702254541765</v>
       </c>
       <c r="I3">
-        <v>0.3684798755134917</v>
+        <v>0.1195284059422832</v>
       </c>
       <c r="J3">
-        <v>0.2794330165164993</v>
+        <v>0.1251777319208927</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3743556449220549</v>
+        <v>0.7136692976668755</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.678139633395617</v>
+        <v>0.7551240014002758</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6688563402614989</v>
+        <v>1.993718363077789</v>
       </c>
       <c r="C4">
-        <v>0.1641304565277721</v>
+        <v>0.5113820918525676</v>
       </c>
       <c r="D4">
-        <v>0.3457661527478137</v>
+        <v>0.2001273414442579</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8992921972119419</v>
+        <v>0.4228024704241875</v>
       </c>
       <c r="G4">
-        <v>0.3497855927703668</v>
+        <v>0.1865530011686829</v>
       </c>
       <c r="H4">
-        <v>0.5270134162765032</v>
+        <v>0.1925803265799502</v>
       </c>
       <c r="I4">
-        <v>0.3736292901093865</v>
+        <v>0.1268634375327515</v>
       </c>
       <c r="J4">
-        <v>0.280683080905348</v>
+        <v>0.1229592279205818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3548479801024413</v>
+        <v>0.6489505688886297</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.690285523443805</v>
+        <v>0.7482670768980455</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6427214702790991</v>
+        <v>1.913965492767943</v>
       </c>
       <c r="C5">
-        <v>0.1577717523015281</v>
+        <v>0.4922952800551741</v>
       </c>
       <c r="D5">
-        <v>0.3450199661950251</v>
+        <v>0.1954779004015279</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.901033914261447</v>
+        <v>0.419166671498175</v>
       </c>
       <c r="G5">
-        <v>0.3507679744042562</v>
+        <v>0.1847857298306792</v>
       </c>
       <c r="H5">
-        <v>0.528581437393477</v>
+        <v>0.1934023959021829</v>
       </c>
       <c r="I5">
-        <v>0.3758055347362106</v>
+        <v>0.1300057347422099</v>
       </c>
       <c r="J5">
-        <v>0.2812367387887136</v>
+        <v>0.12213302539854</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3469064176336261</v>
+        <v>0.6225977084786578</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.69557889150245</v>
+        <v>0.7461430960134123</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6383784532146421</v>
+        <v>1.900718872278361</v>
       </c>
       <c r="C6">
-        <v>0.1567148807035323</v>
+        <v>0.4891249143054779</v>
       </c>
       <c r="D6">
-        <v>0.3448981701171476</v>
+        <v>0.1947088024307249</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9013327990403965</v>
+        <v>0.418580199514075</v>
       </c>
       <c r="G6">
-        <v>0.3509364522931264</v>
+        <v>0.1845036358168102</v>
       </c>
       <c r="H6">
-        <v>0.5288463625507447</v>
+        <v>0.1935463119833614</v>
       </c>
       <c r="I6">
-        <v>0.3761715942756432</v>
+        <v>0.1305365731429236</v>
       </c>
       <c r="J6">
-        <v>0.2813313447127896</v>
+        <v>0.1220004219276234</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3455882247156339</v>
+        <v>0.6182228471881217</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.696478602124998</v>
+        <v>0.7458298702181736</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6685041015389857</v>
+        <v>1.992643026309452</v>
       </c>
       <c r="C7">
-        <v>0.1640447690785152</v>
+        <v>0.5111247461059065</v>
       </c>
       <c r="D7">
-        <v>0.3457559481941956</v>
+        <v>0.2000644386243238</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8993150380153949</v>
+        <v>0.4227522708113867</v>
       </c>
       <c r="G7">
-        <v>0.3497984824369311</v>
+        <v>0.1865283983135768</v>
       </c>
       <c r="H7">
-        <v>0.5270342576895004</v>
+        <v>0.1925909131717276</v>
       </c>
       <c r="I7">
-        <v>0.3736583248171588</v>
+        <v>0.1269052039814405</v>
       </c>
       <c r="J7">
-        <v>0.2806903686181741</v>
+        <v>0.1229477754720278</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3547408444189912</v>
+        <v>0.6485950922705541</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.690355520222326</v>
+        <v>0.7482357646895395</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8009428929544242</v>
+        <v>2.397865996234657</v>
       </c>
       <c r="C8">
-        <v>0.1962393062387946</v>
+        <v>0.6080844962057199</v>
       </c>
       <c r="D8">
-        <v>0.3498467203103246</v>
+        <v>0.2241454272454746</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8918180621691008</v>
+        <v>0.4437758717756424</v>
       </c>
       <c r="G8">
-        <v>0.3455566580474496</v>
+        <v>0.1971947438421182</v>
       </c>
       <c r="H8">
-        <v>0.5197002712655348</v>
+        <v>0.1894880223769775</v>
       </c>
       <c r="I8">
-        <v>0.3632513594241633</v>
+        <v>0.1122438147527536</v>
       </c>
       <c r="J8">
-        <v>0.2782504141242796</v>
+        <v>0.1278226223921095</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3951978449998705</v>
+        <v>0.7828233913799849</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.666355515581245</v>
+        <v>0.7648331024091561</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.058747988434163</v>
+        <v>3.192329531096959</v>
       </c>
       <c r="C9">
-        <v>0.2588029451156331</v>
+        <v>0.7980824120934358</v>
       </c>
       <c r="D9">
-        <v>0.3589604801805564</v>
+        <v>0.2731916997631174</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.882181705006424</v>
+        <v>0.4954767540870009</v>
       </c>
       <c r="G9">
-        <v>0.3400560806222046</v>
+        <v>0.2251540358328512</v>
       </c>
       <c r="H9">
-        <v>0.5077005186676899</v>
+        <v>0.187767831507216</v>
       </c>
       <c r="I9">
-        <v>0.3453092140955132</v>
+        <v>0.08885639493394315</v>
       </c>
       <c r="J9">
-        <v>0.2748644334075507</v>
+        <v>0.1401612859555996</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4747481226084815</v>
+        <v>1.047359544942609</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.630180035084123</v>
+        <v>0.8213758661620574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.24691758343107</v>
+        <v>3.77735673500041</v>
       </c>
       <c r="C10">
-        <v>0.304401573667775</v>
+        <v>0.9379116023290237</v>
       </c>
       <c r="D10">
-        <v>0.3663174476890418</v>
+        <v>0.3105578044959145</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8781988678379236</v>
+        <v>0.540933480512038</v>
       </c>
       <c r="G10">
-        <v>0.3377468416552745</v>
+        <v>0.2508109651256234</v>
       </c>
       <c r="H10">
-        <v>0.5003377588781746</v>
+        <v>0.1895294419098548</v>
       </c>
       <c r="I10">
-        <v>0.3336381868611706</v>
+        <v>0.07540479838915282</v>
       </c>
       <c r="J10">
-        <v>0.2732319598944102</v>
+        <v>0.1512064791703409</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5333033945194501</v>
+        <v>1.24314069280031</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.61027313543849</v>
+        <v>0.8800530079826387</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.332236530894306</v>
+        <v>4.044142358557906</v>
       </c>
       <c r="C11">
-        <v>0.3250620813572027</v>
+        <v>1.001654279258958</v>
       </c>
       <c r="D11">
-        <v>0.3698069911630597</v>
+        <v>0.3278981247039354</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8770614689680798</v>
+        <v>0.5634923954451097</v>
       </c>
       <c r="G11">
-        <v>0.3370754832465224</v>
+        <v>0.2637879464774571</v>
       </c>
       <c r="H11">
-        <v>0.4973041258549742</v>
+        <v>0.1910740379607034</v>
       </c>
       <c r="I11">
-        <v>0.3286584960493926</v>
+        <v>0.07020411071938781</v>
       </c>
       <c r="J11">
-        <v>0.2726755566939474</v>
+        <v>0.1567289629153166</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5599614852851289</v>
+        <v>1.332667186004258</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.602672744419692</v>
+        <v>0.9110601377742</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.364502632900098</v>
+        <v>4.145291747368162</v>
       </c>
       <c r="C12">
-        <v>0.3328733956855103</v>
+        <v>1.02581808445396</v>
       </c>
       <c r="D12">
-        <v>0.3711488320999337</v>
+        <v>0.3345182731450365</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8767278887466858</v>
+        <v>0.5723281647650325</v>
       </c>
       <c r="G12">
-        <v>0.3368760154617689</v>
+        <v>0.2689070587609521</v>
       </c>
       <c r="H12">
-        <v>0.496200794027402</v>
+        <v>0.1917735306134603</v>
       </c>
       <c r="I12">
-        <v>0.3268203491684094</v>
+        <v>0.06837655316911651</v>
       </c>
       <c r="J12">
-        <v>0.2724916798820232</v>
+        <v>0.1588978526171658</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5700587640511259</v>
+        <v>1.36664854555201</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.600004521615489</v>
+        <v>0.9234750976197006</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.357555465211817</v>
+        <v>4.12350143138849</v>
       </c>
       <c r="C13">
-        <v>0.331191647576901</v>
+        <v>1.020612716311177</v>
       </c>
       <c r="D13">
-        <v>0.3708589359371928</v>
+        <v>0.3330900399976713</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8767954090823267</v>
+        <v>0.5704118042515418</v>
       </c>
       <c r="G13">
-        <v>0.3369165350530423</v>
+        <v>0.2677951607623612</v>
       </c>
       <c r="H13">
-        <v>0.4964363947483292</v>
+        <v>0.1916176576282282</v>
       </c>
       <c r="I13">
-        <v>0.3272141093171452</v>
+        <v>0.06876368044011194</v>
       </c>
       <c r="J13">
-        <v>0.2725300874872048</v>
+        <v>0.1584271894794256</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5678840351947656</v>
+        <v>1.359326296304573</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.60056982712463</v>
+        <v>0.9207704926915312</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.334891942424633</v>
+        <v>4.052461328164839</v>
       </c>
       <c r="C14">
-        <v>0.3257049736998852</v>
+        <v>1.003641692390147</v>
       </c>
       <c r="D14">
-        <v>0.3699169764813064</v>
+        <v>0.3284416641339476</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8770320776903375</v>
+        <v>0.5642133073382851</v>
       </c>
       <c r="G14">
-        <v>0.3370579740324331</v>
+        <v>0.2642048870651763</v>
       </c>
       <c r="H14">
-        <v>0.4972124431933622</v>
+        <v>0.1911292430959577</v>
       </c>
       <c r="I14">
-        <v>0.3285063165772328</v>
+        <v>0.07005085587813475</v>
       </c>
       <c r="J14">
-        <v>0.2726598912589253</v>
+        <v>0.1569058065718494</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5607921489413172</v>
+        <v>1.335461180387597</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.602449018380455</v>
+        <v>0.912067716260367</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.321004307831345</v>
+        <v>4.008964206482005</v>
       </c>
       <c r="C15">
-        <v>0.3223426015259747</v>
+        <v>0.9932500206469967</v>
       </c>
       <c r="D15">
-        <v>0.3693426559622566</v>
+        <v>0.3256015385349684</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8771896973479016</v>
+        <v>0.5604554347023338</v>
       </c>
       <c r="G15">
-        <v>0.3371517481840058</v>
+        <v>0.2620329719436185</v>
       </c>
       <c r="H15">
-        <v>0.4976937139322288</v>
+        <v>0.1908452355801202</v>
       </c>
       <c r="I15">
-        <v>0.3293040287907498</v>
+        <v>0.07085805856783978</v>
       </c>
       <c r="J15">
-        <v>0.2727428939809187</v>
+        <v>0.1559842136334879</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5564484641592884</v>
+        <v>1.320853873250613</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.603627427672279</v>
+        <v>0.9068263169286865</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.241335975414358</v>
+        <v>3.75993728727417</v>
       </c>
       <c r="C16">
-        <v>0.3030496569774925</v>
+        <v>0.9337491113657563</v>
       </c>
       <c r="D16">
-        <v>0.3660922622639333</v>
+        <v>0.3094318413351687</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8782867831701324</v>
+        <v>0.5394989554621574</v>
       </c>
       <c r="G16">
-        <v>0.3377983663270356</v>
+        <v>0.2499906101546614</v>
       </c>
       <c r="H16">
-        <v>0.5005423703919902</v>
+        <v>0.1894441021437672</v>
       </c>
       <c r="I16">
-        <v>0.3339702666277873</v>
+        <v>0.07576397756653996</v>
       </c>
       <c r="J16">
-        <v>0.2732720730168623</v>
+        <v>0.1508560989610004</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5315615984290076</v>
+        <v>1.237300348406677</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.610799175925891</v>
+        <v>0.8781178733299839</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.192388789855897</v>
+        <v>3.607355013702374</v>
       </c>
       <c r="C17">
-        <v>0.2911925617043494</v>
+        <v>0.8972860036593318</v>
       </c>
       <c r="D17">
-        <v>0.3641347520928946</v>
+        <v>0.2996030480870502</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8791326493958564</v>
+        <v>0.5271402026072565</v>
       </c>
       <c r="G17">
-        <v>0.3382923225594965</v>
+        <v>0.2429493213375835</v>
       </c>
       <c r="H17">
-        <v>0.5023708206940256</v>
+        <v>0.1887802377675669</v>
       </c>
       <c r="I17">
-        <v>0.3369173707628867</v>
+        <v>0.07901559497058663</v>
       </c>
       <c r="J17">
-        <v>0.2736444327272665</v>
+        <v>0.1478418750798198</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5162992769621866</v>
+        <v>1.186170784504668</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.61557199282295</v>
+        <v>0.8616477163312908</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.164209395604757</v>
+        <v>3.519653365354202</v>
       </c>
       <c r="C18">
-        <v>0.284364935141042</v>
+        <v>0.8763255427562626</v>
       </c>
       <c r="D18">
-        <v>0.3630222937393484</v>
+        <v>0.2939817156359936</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8796826395586024</v>
+        <v>0.5202073173401587</v>
       </c>
       <c r="G18">
-        <v>0.338612103836951</v>
+        <v>0.2390211390235564</v>
       </c>
       <c r="H18">
-        <v>0.5034522120354339</v>
+        <v>0.188467865606107</v>
       </c>
       <c r="I18">
-        <v>0.3386434727988803</v>
+        <v>0.08097167442498154</v>
       </c>
       <c r="J18">
-        <v>0.2738761292627245</v>
+        <v>0.1461546592021037</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5075228049144869</v>
+        <v>1.156805325460098</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.618454140335402</v>
+        <v>0.8525772656066266</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.154663887145261</v>
+        <v>3.489968478105936</v>
       </c>
       <c r="C19">
-        <v>0.2820519043078207</v>
+        <v>0.8692305856756377</v>
       </c>
       <c r="D19">
-        <v>0.3626479478444082</v>
+        <v>0.2920837800920992</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8798797533131619</v>
+        <v>0.5178894410052166</v>
       </c>
       <c r="G19">
-        <v>0.3387264953202305</v>
+        <v>0.2377115320283849</v>
       </c>
       <c r="H19">
-        <v>0.5038234549801146</v>
+        <v>0.1883738058041047</v>
       </c>
       <c r="I19">
-        <v>0.3392332213683442</v>
+        <v>0.08164842460412736</v>
       </c>
       <c r="J19">
-        <v>0.2739575863569357</v>
+        <v>0.1455912036562594</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5045516055529333</v>
+        <v>1.146869681746594</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.619453488754303</v>
+        <v>0.8495737873030151</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.197602034597082</v>
+        <v>3.623591278858385</v>
       </c>
       <c r="C20">
-        <v>0.2924555743468602</v>
+        <v>0.9011662596300596</v>
       </c>
       <c r="D20">
-        <v>0.3643417412019403</v>
+        <v>0.3006460035336431</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8790360354759343</v>
+        <v>0.5284374846560453</v>
       </c>
       <c r="G20">
-        <v>0.3382360465217076</v>
+        <v>0.2436861531918524</v>
       </c>
       <c r="H20">
-        <v>0.5021731033569665</v>
+        <v>0.1888436636697008</v>
       </c>
       <c r="I20">
-        <v>0.3366004362934909</v>
+        <v>0.07866050250012968</v>
       </c>
       <c r="J20">
-        <v>0.2736029803068547</v>
+        <v>0.1481578908220911</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5179237731708639</v>
+        <v>1.191609082808782</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.615049740184404</v>
+        <v>0.8633589385095917</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.341549933321687</v>
+        <v>4.073323931325035</v>
       </c>
       <c r="C21">
-        <v>0.327316882565384</v>
+        <v>1.008625736833181</v>
       </c>
       <c r="D21">
-        <v>0.3701930993214546</v>
+        <v>0.3298055085591756</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8769599251852327</v>
+        <v>0.5660258095271118</v>
       </c>
       <c r="G21">
-        <v>0.3370149418472579</v>
+        <v>0.2652537300304161</v>
       </c>
       <c r="H21">
-        <v>0.4969832654421538</v>
+        <v>0.1912695283453871</v>
       </c>
       <c r="I21">
-        <v>0.3281254720311644</v>
+        <v>0.06966885118463395</v>
       </c>
       <c r="J21">
-        <v>0.2726210364875641</v>
+        <v>0.157350516138969</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5628751462914039</v>
+        <v>1.342468675678973</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.601891353493642</v>
+        <v>0.9146052227968937</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.435380538648985</v>
+        <v>4.36798524598305</v>
       </c>
       <c r="C22">
-        <v>0.3500284212441898</v>
+        <v>1.079010786726542</v>
       </c>
       <c r="D22">
-        <v>0.3741363102423065</v>
+        <v>0.3491785285742139</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8761692710014373</v>
+        <v>0.5923126399952778</v>
       </c>
       <c r="G22">
-        <v>0.3365361802626552</v>
+        <v>0.2805532248919604</v>
       </c>
       <c r="H22">
-        <v>0.4938562782103162</v>
+        <v>0.1935268387731526</v>
       </c>
       <c r="I22">
-        <v>0.3228638521634082</v>
+        <v>0.06462396937889991</v>
       </c>
       <c r="J22">
-        <v>0.2721356326322919</v>
+        <v>0.1638141135442197</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5922674117157385</v>
+        <v>1.441534882541404</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.594515206035481</v>
+        <v>0.952048869914222</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.385324703346271</v>
+        <v>4.210641348036461</v>
       </c>
       <c r="C23">
-        <v>0.337913630035132</v>
+        <v>1.041428532252468</v>
       </c>
       <c r="D23">
-        <v>0.3720208916006271</v>
+        <v>0.3388083286058361</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8765394018926145</v>
+        <v>0.5781174820708301</v>
       </c>
       <c r="G23">
-        <v>0.3367624084293865</v>
+        <v>0.2722714270150561</v>
       </c>
       <c r="H23">
-        <v>0.4955009617031365</v>
+        <v>0.19225790698205</v>
       </c>
       <c r="I23">
-        <v>0.3256466525569746</v>
+        <v>0.06723703000019832</v>
       </c>
       <c r="J23">
-        <v>0.2723803812727965</v>
+        <v>0.1603205682396549</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5765791221098198</v>
+        <v>1.388613821470386</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.598339836008478</v>
+        <v>0.9316845613964233</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.195245247994649</v>
+        <v>3.616250803491084</v>
       </c>
       <c r="C24">
-        <v>0.2918846000110875</v>
+        <v>0.8994119880968583</v>
       </c>
       <c r="D24">
-        <v>0.3642481211107338</v>
+        <v>0.3001743922283282</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8790795162495115</v>
+        <v>0.5278504483893158</v>
       </c>
       <c r="G24">
-        <v>0.3382613774251055</v>
+        <v>0.2433526591910464</v>
       </c>
       <c r="H24">
-        <v>0.5022623973249338</v>
+        <v>0.1888147735663566</v>
       </c>
       <c r="I24">
-        <v>0.3367436234102961</v>
+        <v>0.07882077054307324</v>
       </c>
       <c r="J24">
-        <v>0.2736216660585953</v>
+        <v>0.1480148782062685</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5171893444974387</v>
+        <v>1.189150336878114</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.615285420190517</v>
+        <v>0.8625840577935122</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9892170810735479</v>
+        <v>2.977282770554154</v>
       </c>
       <c r="C25">
-        <v>0.2419408537232357</v>
+        <v>0.7466661187446846</v>
       </c>
       <c r="D25">
-        <v>0.3563785493917919</v>
+        <v>0.2597062573207296</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8842453822170597</v>
+        <v>0.4802607241777608</v>
       </c>
       <c r="G25">
-        <v>0.3412409977255635</v>
+        <v>0.216754475969573</v>
       </c>
       <c r="H25">
-        <v>0.510691614558624</v>
+        <v>0.1877296178155987</v>
       </c>
       <c r="I25">
-        <v>0.3498982424600108</v>
+        <v>0.09456309875079683</v>
       </c>
       <c r="J25">
-        <v>0.2756304262296894</v>
+        <v>0.1364974026012007</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4532069044750671</v>
+        <v>0.9755928947955752</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.638797315333562</v>
+        <v>0.8032609764585459</v>
       </c>
     </row>
   </sheetData>
